--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3990831.037409641</v>
+        <v>4064206.32639573</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.881805149</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7543515.948138999</v>
+        <v>7445238.17318634</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.60114813899415</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>15.02288557812548</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>81.1299035877431</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>163.9206648785247</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>96.63456664986606</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>57.76187302956011</v>
+        <v>274.487665874544</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>359.6208981076086</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.27570395100769</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>133.675685265885</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>33.84234274505293</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.1060039253885</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.20203877768258</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>73.50096938092101</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>67.74161902837874</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>106.1568787371648</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>231.5553969352848</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2239,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>126.7955321565811</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>114.8421342664043</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>152.1587084863936</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>66.90445977359236</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>19.93763618748365</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>153.840380066451</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>114.8401007832851</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373658</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>123.6883486222346</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689363</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539622</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>229.1854957672581</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>88.60528334072292</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224538</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3791,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329028</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>58.62897269482394</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.58581884348087</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>220.2803460863044</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.22335213854</v>
+        <v>1172.541840390022</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>1172.541840390022</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>814.2761417832712</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>814.2761417832712</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>1172.541840390022</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C5" t="n">
-        <v>240.388315801204</v>
+        <v>653.0832559835876</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>653.0832559835876</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
         <v>53.94298182036445</v>
@@ -4659,28 +4661,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>640.3667387675712</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="V7" t="n">
-        <v>640.3667387675712</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W7" t="n">
-        <v>350.9495687306105</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C8" t="n">
-        <v>902.4179758042681</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>902.4179758042681</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>516.6297232060238</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1722.185086336932</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,13 +4889,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392339</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>88.12716641132701</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>88.12716641132701</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>88.12716641132701</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>88.12716641132701</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>88.12716641132701</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>88.12716641132701</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>325.2978374347314</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5020,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.358329063101</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>110.5524841650157</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>110.5524841650157</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>110.5524841650157</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>110.5524841650157</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>110.5524841650157</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.712528333286</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.712528333286</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.919949189756</v>
+        <v>260.6691235773515</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,31 +5266,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,19 +5302,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.597763704656</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1319.415289313285</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>1030.286650526843</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>775.602162320956</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014775</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>3340.964766294737</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>3670.82739395877</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>4340.29115526143</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4144.425579450937</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>4144.425579450937</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>4037.196409009357</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>3889.283315426963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281177</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>4326.074044281177</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>4326.074044281177</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W19" t="n">
-        <v>4326.074044281177</v>
+        <v>641.0327727841204</v>
       </c>
       <c r="X19" t="n">
-        <v>4326.074044281177</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y19" t="n">
-        <v>4326.074044281177</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="20">
@@ -5750,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5832,22 +5834,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3904.376443449035</v>
+        <v>3890.044176674691</v>
       </c>
       <c r="C22" t="n">
-        <v>3904.376443449035</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="D22" t="n">
-        <v>3904.376443449035</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="E22" t="n">
-        <v>3756.463349866642</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368731</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
         <v>3459.155393916675</v>
@@ -5941,19 +5943,19 @@
         <v>4549.85945949167</v>
       </c>
       <c r="U22" t="n">
-        <v>4421.783164384013</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V22" t="n">
-        <v>4421.783164384013</v>
+        <v>4006.046332499342</v>
       </c>
       <c r="W22" t="n">
-        <v>4132.365994347052</v>
+        <v>4006.046332499342</v>
       </c>
       <c r="X22" t="n">
-        <v>3904.376443449035</v>
+        <v>3890.044176674691</v>
       </c>
       <c r="Y22" t="n">
-        <v>3904.376443449035</v>
+        <v>3890.044176674691</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>2896.654173359327</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>3203.974306639288</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>4008.385884903439</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4189.868928062645</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929845</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>4660.934562929845</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>4660.934562929845</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>4371.517392892884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>4371.517392892884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4371.517392892884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,22 +6308,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>816.7950850315608</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>3945.499475043587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>3945.499475043587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3795.382835631251</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3647.469742048858</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3647.469742048858</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3479.294420368678</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="W28" t="n">
-        <v>865.0520438420759</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="X28" t="n">
-        <v>637.0624929440586</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.2699138005285</v>
+        <v>4127.147939873827</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,13 +6484,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,22 +6548,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1236.836466556557</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>3872.46345166794</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6783,22 +6785,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M33" t="n">
-        <v>857.5427825698952</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>3899.158388975809</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>3899.158388975809</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>3899.158388975809</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>3899.158388975809</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>3752.268441477899</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>3584.09311979772</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>4119.950968119339</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>3899.158388975809</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>560.9563154684963</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>788.9458663665137</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>560.9563154684963</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>560.9563154684963</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>167.8887746690276</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>316.9584588710875</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>1098.42087083253</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="41">
@@ -7406,49 +7408,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.59991596447</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1439.695086017676</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1439.695086017676</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1215.909670807182</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>926.7810320207402</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>926.7810320207402</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>637.3638619837797</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>637.3638619837797</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141292</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>2315.73845358094</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3628.091576844582</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4840.060816606736</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4840.060816606736</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4616.275401396241</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>4327.146762609799</v>
+        <v>741.6303417376098</v>
       </c>
       <c r="V46" t="n">
-        <v>4327.146762609799</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="W46" t="n">
-        <v>4037.729592572839</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X46" t="n">
-        <v>3809.740041674821</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y46" t="n">
-        <v>3809.740041674821</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8702,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>403.7628319612151</v>
       </c>
       <c r="O15" t="n">
-        <v>41.75994765618367</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.715186377202</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,22 +9716,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>230.7151863772031</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>283.6093329825487</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>285.1031356539327</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>306.1147370139952</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10196,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>28.12263706262996</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10431,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>165.9802687929761</v>
       </c>
       <c r="M33" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>29.47535963978191</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.62661940943553</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>104.8749102765742</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,28 +11378,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.100663089359216</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.72597625654882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>97.21720668658941</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>124.4198406026822</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>153.8059420300105</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>42.45859428104751</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>54.96760140130618</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>159.4418202419963</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>110.8675211226329</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>15.0881126122342</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>185.2331835502357</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>128.9761921800525</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>132.68261827014</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>64.99187939865217</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>25.22547974530156</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.33750256933294</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>137.1043720483142</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>51.33537970896885</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>89.37853356031191</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>65.95700631227291</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634610.7944551752</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664823.1235065463</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664823.1235065464</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664823.1235065463</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664823.1235065463</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664823.1235065463</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885329</v>
+      </c>
+      <c r="G2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="J2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="L2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="N2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="I2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885327</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176769</v>
-      </c>
       <c r="O2" t="n">
-        <v>800515.7256176771</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885324</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371251</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26424,40 +26426,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="K4" t="n">
-        <v>51722.3327936228</v>
-      </c>
       <c r="L4" t="n">
-        <v>51722.33279362279</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.3327936228</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362278</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.3327936228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26496,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.00898210387</v>
+        <v>-46802.00898210393</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324405</v>
+        <v>543165.8702324408</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324405</v>
+        <v>543165.8702324404</v>
       </c>
       <c r="E6" t="n">
-        <v>116055.7585106174</v>
+        <v>116055.7585106175</v>
       </c>
       <c r="F6" t="n">
-        <v>641215.7949875135</v>
+        <v>641215.7949875139</v>
       </c>
       <c r="G6" t="n">
-        <v>641215.7949875135</v>
+        <v>641215.7949875132</v>
       </c>
       <c r="H6" t="n">
-        <v>641215.7949875136</v>
+        <v>641215.7949875137</v>
       </c>
       <c r="I6" t="n">
         <v>641215.7949875135</v>
       </c>
       <c r="J6" t="n">
-        <v>464792.5757949208</v>
+        <v>464792.5757949207</v>
       </c>
       <c r="K6" t="n">
-        <v>596572.7749003163</v>
+        <v>641215.7949875135</v>
       </c>
       <c r="L6" t="n">
-        <v>651078.2870040284</v>
+        <v>641215.7949875133</v>
       </c>
       <c r="M6" t="n">
-        <v>516277.2717701916</v>
+        <v>506414.7797536761</v>
       </c>
       <c r="N6" t="n">
-        <v>651078.2870040287</v>
+        <v>641215.7949875135</v>
       </c>
       <c r="O6" t="n">
-        <v>651078.2870040289</v>
+        <v>641215.7949875132</v>
       </c>
       <c r="P6" t="n">
-        <v>641215.7949875136</v>
+        <v>641215.7949875135</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,10 +26758,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324.1326935244864</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>391.853160163586</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>64.29114443518814</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>190.7623767421583</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>285.2958034223957</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>228.5200012124176</v>
+        <v>11.79420836743373</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>5.651993663398969</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.6003417907037</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>46.15629491605227</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>101.1232790472853</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29992,19 +29994,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-2.559637080376078e-15</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35027,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109123</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35726,25 +35728,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>736.957405359228</v>
       </c>
       <c r="O15" t="n">
-        <v>324.1236498972918</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>10.73738595686865</v>
@@ -35966,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,13 +35977,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087267</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,16 +36211,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332275</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>565.9730352236569</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>534.360840609957</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>639.3093104120081</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>338.5470141130963</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37087,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37151,25 +37153,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>415.2379737490004</v>
       </c>
       <c r="M33" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>71.38553859468863</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879393</v>
@@ -37628,7 +37630,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37639,10 @@
         <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>138.6396521945097</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>438.0694836745871</v>
+        <v>621.6037559756878</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>212.194078020884</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4064206.32639573</v>
+        <v>4057189.311504019</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7445238.17318634</v>
+        <v>7445238.173186339</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.02288557812548</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>81.1299035877431</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>22.75446130335949</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>96.63456664986606</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>105.4275274935933</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.275596830496642</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>274.487665874544</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>359.6208981076086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>64.76935934992336</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.675685265885</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.20203877768258</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74161902837874</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,10 +2061,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>231.5553969352848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>114.8421342664043</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>66.90445977359236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>19.93763618748365</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.8401007832851</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>123.6883486222346</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>94.16481274941238</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.1854957672581</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.53884904317064</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>88.60528334072292</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.62897269482394</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>220.2803460863044</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1172.541840390022</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1172.541840390022</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>814.2761417832712</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>814.2761417832712</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1562.681172365833</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1172.541840390022</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.548903816607</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>181.548903816607</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D4" t="n">
-        <v>181.548903816607</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E4" t="n">
-        <v>181.548903816607</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>403.6754589963297</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>234.6756587346621</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>76.92728616719222</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>181.548903816607</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.548903816607</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1022.045772923999</v>
+        <v>1452.115530175775</v>
       </c>
       <c r="C5" t="n">
-        <v>653.0832559835876</v>
+        <v>1083.153013235363</v>
       </c>
       <c r="D5" t="n">
-        <v>653.0832559835876</v>
+        <v>724.887314628613</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>724.887314628613</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>313.9014098390055</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>450.8687156462887</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>450.8687156462887</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>450.8687156462887</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.58524627281</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>972.3318138408822</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312744</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1722.185086336932</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>110.5524841650157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>110.5524841650157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>110.5524841650157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>110.5524841650157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>110.5524841650157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188989</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4512536188989</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>481.4617027208816</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,22 +5275,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,19 +5302,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1319.415289313285</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1030.286650526843</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>775.602162320956</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>486.1849922839954</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,13 +5500,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5518,10 +5518,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>874.927113122792</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>641.0327727841204</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3890.044176674691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4260.730820705228</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4006.046332499342</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4006.046332499342</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>3890.044176674691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3890.044176674691</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3945.499475043587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3945.499475043587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3795.382835631251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3647.469742048858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3647.469742048858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3479.294420368678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>4347.940519017357</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>4347.940519017357</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X28" t="n">
-        <v>4347.940519017357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4127.147939873827</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3756.463349866642</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C31" t="n">
-        <v>3756.463349866642</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>3756.463349866642</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>3756.463349866642</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368731</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4093.25603081147</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W31" t="n">
-        <v>4093.25603081147</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X31" t="n">
-        <v>4093.25603081147</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y31" t="n">
-        <v>3872.46345166794</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>698.8634468392138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1006.183580119176</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3899.158388975809</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3899.158388975809</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3899.158388975809</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3899.158388975809</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3752.268441477899</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3584.09311979772</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017357</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>4347.940519017357</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4119.950968119339</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>3899.158388975809</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,64 +6925,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.9563154684963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>788.9458663665137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>560.9563154684963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>560.9563154684963</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2486.320249703574</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.9798268587604</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C40" t="n">
-        <v>527.0436439308535</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D40" t="n">
-        <v>376.9270045185177</v>
+        <v>496.665036439558</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185177</v>
+        <v>496.665036439558</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>349.7750889416477</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>181.5997672614683</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.921157035281</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.921157035281</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.921157035281</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.42087083253</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.6282916890001</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,61 +7402,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7496,10 +7496,10 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
         <v>1843.901542059518</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.5712828402495</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1439.695086017676</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1439.695086017676</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1215.909670807182</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>926.7810320207402</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>926.7810320207402</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>637.3638619837797</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>637.3638619837797</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>416.5712828402495</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7645,55 +7645,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>741.6303417376098</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>486.9458535317229</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>486.9458535317229</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>486.9458535317229</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>32.92248665775651</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>403.7628319612151</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>43.65987261462459</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>230.7151863772031</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>306.1147370139952</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>165.9802687929761</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.62661940943553</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21720668658941</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8059420300105</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>54.96760140130618</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>110.8675211226329</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>185.2331835502357</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>128.9761921800525</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.99187939865217</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>185.996791168474</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>25.22547974530156</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.33750256933294</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>65.37497932436548</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>137.1043720483142</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>51.33537970896885</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>65.95700631227291</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885329</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="H2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="I2" t="n">
         <v>762506.6664885326</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="L2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="M2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="N2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="O2" t="n">
-        <v>762506.6664885322</v>
-      </c>
       <c r="P2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,22 +26441,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="M4" t="n">
-        <v>29303.54555230228</v>
-      </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.00898210393</v>
+        <v>-46802.00898210367</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324408</v>
+        <v>543165.8702324405</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324404</v>
+        <v>543165.8702324406</v>
       </c>
       <c r="E6" t="n">
-        <v>116055.7585106175</v>
+        <v>115081.1672508958</v>
       </c>
       <c r="F6" t="n">
-        <v>641215.7949875139</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="G6" t="n">
-        <v>641215.7949875132</v>
+        <v>640241.2037277916</v>
       </c>
       <c r="H6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="I6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.203727792</v>
       </c>
       <c r="J6" t="n">
-        <v>464792.5757949207</v>
+        <v>463817.9845351989</v>
       </c>
       <c r="K6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.203727792</v>
       </c>
       <c r="L6" t="n">
-        <v>641215.7949875133</v>
+        <v>640241.2037277917</v>
       </c>
       <c r="M6" t="n">
-        <v>506414.7797536761</v>
+        <v>505440.1884939546</v>
       </c>
       <c r="N6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.2037277917</v>
       </c>
       <c r="O6" t="n">
-        <v>641215.7949875132</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="P6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.2037277917</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.853160163586</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>64.29114443518814</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>112.2111604889788</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>285.2958034223957</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>308.3566425272016</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>11.79420836743373</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.651993663398969</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>109.6463534590481</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.15629491605227</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29994,19 +29994,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.559637080376078e-15</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-5.706459047626701e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>315.2861888988646</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221117</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,19 +35737,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>736.957405359228</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>250.7532875461493</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36214,10 +36214,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>479.9728913332275</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>639.3093104120081</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>415.2379737490004</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>138.6396521945097</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4057189.311504019</v>
+        <v>4062128.57435305</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7445238.173186339</v>
+        <v>7445238.17318634</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>314.6757550035595</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.75446130335949</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>105.4275274935933</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>167.3468737284994</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.275596830496642</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>97.367793941671</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>30.04225112093197</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>64.76935934992336</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586905</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274057</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>248.9913969484764</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>201.6473422926464</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>66.14085215535403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>94.16481274941238</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.53884904317064</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>127.4321567831317</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.64843562452403</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>144.0409689064675</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>403.6754589963297</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>234.6756587346621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>76.92728616719222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.115530175775</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1083.153013235363</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>724.887314628613</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>724.887314628613</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>313.9014098390055</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.715370239897</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4664,31 +4664,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810045</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810045</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>629.7776771946453</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>415.489254012808</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1253.251950079337</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1253.251950079337</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>894.9862514725869</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>509.1979988743427</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>502.2524981251392</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>84.28869002332607</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.662608371699</v>
+        <v>2366.086203674653</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.893953101585</v>
+        <v>2013.317548404539</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>1639.851790143459</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1639.851790143459</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>559.192801278528</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661923</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837991</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858888</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>823.7043836988429</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>823.7043836988429</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>823.7043836988429</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6205,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6408,25 +6408,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954967</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6442,34 +6442,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6487,22 +6487,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1432.107328986838</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1432.107328986838</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>1432.107328986838</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7122,10 +7122,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>349.7750889416477</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>181.5997672614683</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>496.665036439558</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>496.665036439558</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
         <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N42" t="n">
         <v>1843.901542059518</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>929.7149170746092</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7809,19 +7809,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415585</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>37.24595545010098</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>84.59001010593096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>185.996791168474</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>65.37497932436548</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>124.7054865406963</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>142.1963834921098</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>50.9665916631602</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="F2" t="n">
         <v>762506.6664885324</v>
-      </c>
-      <c r="F2" t="n">
-        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885322</v>
@@ -26334,28 +26334,28 @@
         <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="J2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="K2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="K2" t="n">
-        <v>762506.6664885326</v>
-      </c>
       <c r="L2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="O2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26447,19 +26447,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.00898210367</v>
+        <v>-46802.0089821039</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324405</v>
+        <v>543165.8702324406</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324406</v>
+        <v>543165.8702324408</v>
       </c>
       <c r="E6" t="n">
-        <v>115081.1672508958</v>
+        <v>115958.2993846454</v>
       </c>
       <c r="F6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="G6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="H6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="I6" t="n">
-        <v>640241.203727792</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="J6" t="n">
-        <v>463817.9845351989</v>
+        <v>464695.1166689481</v>
       </c>
       <c r="K6" t="n">
-        <v>640241.203727792</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="L6" t="n">
-        <v>640241.2037277917</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="M6" t="n">
-        <v>505440.1884939546</v>
+        <v>506317.320627704</v>
       </c>
       <c r="N6" t="n">
-        <v>640241.2037277917</v>
+        <v>641118.3358615419</v>
       </c>
       <c r="O6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="P6" t="n">
-        <v>640241.2037277917</v>
+        <v>641118.3358615414</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>68.08019533676975</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>99.10841501723553</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>112.2111604889788</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>87.00133556471224</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>308.3566425272016</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>83.87729377978985</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>49.29739803848686</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>293.8805216434252</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>109.6463534590481</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831818</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -30228,13 +30228,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.706459047626701e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751861</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
